--- a/documents/project management/Test/Abnahmetest_Go Happy_gesamt.xlsx
+++ b/documents/project management/Test/Abnahmetest_Go Happy_gesamt.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -290,6 +290,36 @@
   </si>
   <si>
     <t>Was passiert hier?</t>
+  </si>
+  <si>
+    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Ort an und klickt auf den "Zurück-Pfeil". Daraufhin wird der "Aktualisierungs-Button" betätigt, um die Einstellungen zu übernehmen</t>
+  </si>
+  <si>
+    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Wochentag an und klickt auf den "Zurück-Pfeil". Daraufhin wird der "Aktualisierungs-Button" betätigt, um die Einstellungen zu übernehmen</t>
+  </si>
+  <si>
+    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Radius an und klickt auf den "Zurück-Pfeil". Daraufhin wird der "Aktualisierungs-Button" betätigt, um die Einstellungen zu übernehmen</t>
+  </si>
+  <si>
+    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Uhrzeit an und klickt auf den "Zurück-Pfeil". Daraufhin wird der "Aktualisierungs-Button" betätigt, um die Einstellungen zu übernehmen</t>
+  </si>
+  <si>
+    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Verweilszeit an und klickt auf den "Zurück-Pfeil". Daraufhin wird der "Aktualisierungs-Button" betätigt, um die Einstellungen zu übernehmen</t>
+  </si>
+  <si>
+    <t>Der Anwender öffnet die Web-Anwendung und betätigt den "Go Happy"-Button und es werden keine Bars, auf den die Parameter zutreffen, gefunden.</t>
+  </si>
+  <si>
+    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Ort an und klickt auf den "Zurück-Pfeil".  Daraufhin wird der "Aktualisierungs-Button" betätigt, um die Einstellungen zu übernehmen und eine oder mehrer Bars passen nicht mehr zu den eingestellten Parametern.</t>
+  </si>
+  <si>
+    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Radius an und klickt auf den "Zurück-Pfeil".  Daraufhin wird der "Aktualisierungs-Button" betätigt, um die Einstellungen zu übernehmen und eine oder mehrere Bars passen nicht mehr zu den eingestellten Parametern.</t>
+  </si>
+  <si>
+    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Uhrzeit an und klickt auf den "Zurück-Pfeil".  Daraufhin wird der "Aktualisierungs-Button" betätigt, um die Einstellungen zu übernehmen und eine oder mehrere Bars passennicht mehr zu den eingestellten Parametern.</t>
+  </si>
+  <si>
+    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Verweilzeit an und klickt auf den "Zurück-Pfeil".  Daraufhin wird der "Aktualisierungs-Button" betätigt, um die Einstellungen zu übernehmen und eine oder mehrere Bars passen nicht mehr zu den eingestellten Parametern.</t>
   </si>
 </sst>
 </file>
@@ -767,10 +797,126 @@
   </cellStyles>
   <dxfs count="32">
     <dxf>
-      <border outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -781,6 +927,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -934,6 +1087,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -941,12 +1100,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1099,6 +1252,26 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1120,149 +1293,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
@@ -1309,8 +1339,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:K40" totalsRowShown="0">
-  <autoFilter ref="A2:K40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:K39" totalsRowShown="0">
+  <autoFilter ref="A2:K39"/>
   <tableColumns count="11">
     <tableColumn id="1" name="ID" dataDxfId="31"/>
     <tableColumn id="2" name="Testszenario" dataDxfId="30"/>
@@ -1341,42 +1371,42 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E40" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="19" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E40" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A2:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="18"/>
-    <tableColumn id="2" name="Testszenario" dataDxfId="17"/>
+    <tableColumn id="1" name="ID" dataDxfId="17"/>
+    <tableColumn id="2" name="Testszenario" dataDxfId="16"/>
     <tableColumn id="3" name="Erwartungen"/>
-    <tableColumn id="4" name="Ergebnis Backend" dataDxfId="16"/>
-    <tableColumn id="5" name="Kommentar Backend" dataDxfId="15"/>
+    <tableColumn id="4" name="Ergebnis Backend" dataDxfId="15"/>
+    <tableColumn id="5" name="Kommentar Backend" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle14" displayName="Tabelle14" ref="A2:E40" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle14" displayName="Tabelle14" ref="A2:E40" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A2:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" name="Testszenario" dataDxfId="12"/>
+    <tableColumn id="1" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" name="Testszenario" dataDxfId="9"/>
     <tableColumn id="3" name="Erwartungen"/>
-    <tableColumn id="4" name="Ergebnis Backend" dataDxfId="11"/>
-    <tableColumn id="5" name="Kommentar Backend" dataDxfId="10"/>
+    <tableColumn id="4" name="Ergebnis Backend" dataDxfId="8"/>
+    <tableColumn id="5" name="Kommentar Backend" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle146" displayName="Tabelle146" ref="A2:E40" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle146" displayName="Tabelle146" ref="A2:E40" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A2:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" name="Testszenario" dataDxfId="5"/>
+    <tableColumn id="1" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" name="Testszenario" dataDxfId="2"/>
     <tableColumn id="3" name="Erwartungen"/>
-    <tableColumn id="4" name="Ergebnis Backend" dataDxfId="4"/>
-    <tableColumn id="5" name="Kommentar Backend" dataDxfId="3"/>
+    <tableColumn id="4" name="Ergebnis Backend" dataDxfId="1"/>
+    <tableColumn id="5" name="Kommentar Backend" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1704,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1807,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>9</v>
@@ -1839,12 +1869,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="30">
+    <row r="5" spans="1:11" ht="45">
       <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -1876,12 +1906,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="30">
+    <row r="6" spans="1:11" ht="60">
       <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -1913,12 +1943,12 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="30">
+    <row r="7" spans="1:11" ht="45">
       <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -1950,12 +1980,12 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="30">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -1987,12 +2017,12 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="30">
+    <row r="9" spans="1:11" ht="60">
       <c r="A9" s="16">
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -2029,7 +2059,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>61</v>
@@ -2066,7 +2096,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>61</v>
@@ -2103,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -2140,7 +2170,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>61</v>
@@ -2392,15 +2422,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="30">
+    <row r="20" spans="1:11" ht="30">
       <c r="A20" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D20" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2411,31 +2441,33 @@
         <v>0</v>
       </c>
       <c r="F20" s="11">
-        <f>Frontend!D21</f>
+        <f>Frontend!D20</f>
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f>Frontend!E21</f>
+        <f>Frontend!E20</f>
         <v>0</v>
       </c>
       <c r="H20" s="11">
-        <f>Design!D21</f>
+        <f>Design!D20</f>
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <f>Design!E21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30">
+        <f>Design!E20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="45">
       <c r="A21" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2445,20 +2477,20 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F21" s="11">
-        <f>Frontend!D20</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <f>Frontend!E20</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <f>Design!D20</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <f>Design!E20</f>
+      <c r="F21" s="1">
+        <f>Frontend!D17</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f>Frontend!E17</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f>Design!D17</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f>Design!E17</f>
         <v>0</v>
       </c>
       <c r="J21" s="1"/>
@@ -2466,13 +2498,13 @@
     </row>
     <row r="22" spans="1:11" ht="45">
       <c r="A22" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2483,19 +2515,19 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <f>Frontend!D17</f>
+        <f>Frontend!D18</f>
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <f>Frontend!E17</f>
+        <f>Frontend!E18</f>
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <f>Design!D17</f>
+        <f>Design!D18</f>
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f>Design!E17</f>
+        <f>Design!E18</f>
         <v>0</v>
       </c>
       <c r="J22" s="1"/>
@@ -2503,13 +2535,13 @@
     </row>
     <row r="23" spans="1:11" ht="45">
       <c r="A23" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2520,19 +2552,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <f>Frontend!D18</f>
+        <f>Frontend!D19</f>
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <f>Frontend!E18</f>
+        <f>Frontend!E19</f>
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <f>Design!D18</f>
+        <f>Design!D19</f>
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <f>Design!E18</f>
+        <f>Design!E19</f>
         <v>0</v>
       </c>
       <c r="J23" s="1"/>
@@ -2540,13 +2572,13 @@
     </row>
     <row r="24" spans="1:11" ht="45">
       <c r="A24" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2556,34 +2588,34 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F24" s="1">
-        <f>Frontend!D19</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <f>Frontend!E19</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <f>Design!D19</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <f>Design!E19</f>
+      <c r="F24" s="11">
+        <f>Frontend!D26</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <f>Frontend!E26</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <f>Design!D26</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <f>Design!E26</f>
         <v>0</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="45">
+    <row r="25" spans="1:11" ht="30">
       <c r="A25" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2593,34 +2625,34 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F25" s="11">
-        <f>Frontend!D26</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <f>Frontend!E26</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <f>Design!D26</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <f>Design!E26</f>
+      <c r="F25" s="1">
+        <f>Frontend!D20</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <f>Frontend!E20</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f>Design!D20</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <f>Design!E20</f>
         <v>0</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="30">
+    <row r="26" spans="1:11" ht="45">
       <c r="A26" s="16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2631,33 +2663,33 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f>Frontend!D20</f>
+        <f>Frontend!D21</f>
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f>Frontend!E20</f>
+        <f>Frontend!E21</f>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f>Design!D20</f>
+        <f>Design!D21</f>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f>Design!E20</f>
+        <f>Design!E21</f>
         <v>0</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="45">
+    <row r="27" spans="1:11" ht="60">
       <c r="A27" s="16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2667,34 +2699,34 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F27" s="1">
-        <f>Frontend!D21</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <f>Frontend!E21</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <f>Design!D21</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <f>Design!E21</f>
+      <c r="F27" s="11">
+        <f>Frontend!D29</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <f>Frontend!E29</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <f>Design!D29</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <f>Design!E29</f>
         <v>0</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="60">
+    <row r="28" spans="1:11" ht="45">
       <c r="A28" s="16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2704,20 +2736,20 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F28" s="11">
-        <f>Frontend!D29</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
-        <f>Frontend!E29</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
-        <f>Design!D29</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <f>Design!E29</f>
+      <c r="F28" s="1">
+        <f>Frontend!D22</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <f>Frontend!E22</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <f>Design!D22</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <f>Design!E22</f>
         <v>0</v>
       </c>
       <c r="J28" s="1"/>
@@ -2725,13 +2757,13 @@
     </row>
     <row r="29" spans="1:11" ht="45">
       <c r="A29" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2742,19 +2774,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <f>Frontend!D22</f>
+        <f>Frontend!D23</f>
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <f>Frontend!E22</f>
+        <f>Frontend!E23</f>
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <f>Design!D22</f>
+        <f>Design!D23</f>
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <f>Design!E22</f>
+        <f>Design!E23</f>
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
@@ -2762,13 +2794,13 @@
     </row>
     <row r="30" spans="1:11" ht="45">
       <c r="A30" s="16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2779,33 +2811,33 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <f>Frontend!D23</f>
+        <f>Frontend!D24</f>
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <f>Frontend!E23</f>
+        <f>Frontend!E24</f>
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <f>Design!D23</f>
+        <f>Design!D24</f>
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <f>Design!E23</f>
+        <f>Design!E24</f>
         <v>0</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="45">
+    <row r="31" spans="1:11" ht="30">
       <c r="A31" s="16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="D31" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2816,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <f>Frontend!D24</f>
+        <f>Frontend!D25</f>
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <f>Frontend!E24</f>
+        <f>Frontend!E25</f>
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <f>Design!D24</f>
+        <f>Design!D25</f>
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f>Design!E24</f>
+        <f>Design!E25</f>
         <v>0</v>
       </c>
       <c r="J31" s="1"/>
@@ -2836,13 +2868,13 @@
     </row>
     <row r="32" spans="1:11" ht="30">
       <c r="A32" s="16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>74</v>
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D32" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2852,34 +2884,34 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F32" s="1">
-        <f>Frontend!D25</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <f>Frontend!E25</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <f>Design!D25</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <f>Design!E25</f>
+      <c r="F32" s="11">
+        <f>Frontend!D26</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <f>Frontend!E26</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <f>Design!D26</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <f>Design!E26</f>
         <v>0</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="30">
+    <row r="33" spans="1:11" ht="45">
       <c r="A33" s="16">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2890,33 +2922,33 @@
         <v>0</v>
       </c>
       <c r="F33" s="11">
-        <f>Frontend!D26</f>
+        <f>Frontend!D27</f>
         <v>0</v>
       </c>
       <c r="G33" s="11">
-        <f>Frontend!E26</f>
+        <f>Frontend!E27</f>
         <v>0</v>
       </c>
       <c r="H33" s="11">
-        <f>Design!D26</f>
+        <f>Design!D27</f>
         <v>0</v>
       </c>
       <c r="I33" s="11">
-        <f>Design!E26</f>
+        <f>Design!E27</f>
         <v>0</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="45">
+    <row r="34" spans="1:11" ht="30">
       <c r="A34" s="16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2927,19 +2959,19 @@
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <f>Frontend!D27</f>
+        <f>Frontend!D28</f>
         <v>0</v>
       </c>
       <c r="G34" s="11">
-        <f>Frontend!E27</f>
+        <f>Frontend!E28</f>
         <v>0</v>
       </c>
       <c r="H34" s="11">
-        <f>Design!D27</f>
+        <f>Design!D28</f>
         <v>0</v>
       </c>
       <c r="I34" s="11">
-        <f>Design!E27</f>
+        <f>Design!E28</f>
         <v>0</v>
       </c>
       <c r="J34" s="1"/>
@@ -2947,13 +2979,13 @@
     </row>
     <row r="35" spans="1:11" ht="30">
       <c r="A35" s="16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2964,33 +2996,33 @@
         <v>0</v>
       </c>
       <c r="F35" s="11">
-        <f>Frontend!D28</f>
+        <f>Frontend!D29</f>
         <v>0</v>
       </c>
       <c r="G35" s="11">
-        <f>Frontend!E28</f>
+        <f>Frontend!E29</f>
         <v>0</v>
       </c>
       <c r="H35" s="11">
-        <f>Design!D28</f>
+        <f>Design!D29</f>
         <v>0</v>
       </c>
       <c r="I35" s="11">
-        <f>Design!E28</f>
+        <f>Design!E29</f>
         <v>0</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="30">
+    <row r="36" spans="1:11" ht="45">
       <c r="A36" s="16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -3001,33 +3033,33 @@
         <v>0</v>
       </c>
       <c r="F36" s="11">
-        <f>Frontend!D29</f>
+        <f>Frontend!D30</f>
         <v>0</v>
       </c>
       <c r="G36" s="11">
-        <f>Frontend!E29</f>
+        <f>Frontend!E30</f>
         <v>0</v>
       </c>
       <c r="H36" s="11">
-        <f>Design!D29</f>
+        <f>Design!D30</f>
         <v>0</v>
       </c>
       <c r="I36" s="11">
-        <f>Design!E29</f>
+        <f>Design!E30</f>
         <v>0</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="45">
+    <row r="37" spans="1:11" ht="30">
       <c r="A37" s="16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D37" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -3038,33 +3070,33 @@
         <v>0</v>
       </c>
       <c r="F37" s="11">
-        <f>Frontend!D30</f>
+        <f>Frontend!D31</f>
         <v>0</v>
       </c>
       <c r="G37" s="11">
-        <f>Frontend!E30</f>
+        <f>Frontend!E31</f>
         <v>0</v>
       </c>
       <c r="H37" s="11">
-        <f>Design!D30</f>
+        <f>Design!D31</f>
         <v>0</v>
       </c>
       <c r="I37" s="11">
-        <f>Design!E30</f>
+        <f>Design!E31</f>
         <v>0</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="30">
+    <row r="38" spans="1:11">
       <c r="A38" s="16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>27</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="D38" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -3075,19 +3107,19 @@
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <f>Frontend!D31</f>
+        <f>Frontend!D32</f>
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <f>Frontend!E31</f>
+        <f>Frontend!E32</f>
         <v>0</v>
       </c>
       <c r="H38" s="11">
-        <f>Design!D31</f>
+        <f>Design!D32</f>
         <v>0</v>
       </c>
       <c r="I38" s="11">
-        <f>Design!E31</f>
+        <f>Design!E32</f>
         <v>0</v>
       </c>
       <c r="J38" s="1"/>
@@ -3095,10 +3127,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>81</v>
@@ -3112,63 +3144,26 @@
         <v>0</v>
       </c>
       <c r="F39" s="11">
-        <f>Frontend!D32</f>
+        <f>Frontend!D33</f>
         <v>0</v>
       </c>
       <c r="G39" s="11">
-        <f>Frontend!E32</f>
+        <f>Frontend!E33</f>
         <v>0</v>
       </c>
       <c r="H39" s="11">
-        <f>Design!D32</f>
+        <f>Design!D33</f>
         <v>0</v>
       </c>
       <c r="I39" s="11">
-        <f>Design!E32</f>
+        <f>Design!E33</f>
         <v>0</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="16">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="1">
-        <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <f>Frontend!D33</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <f>Frontend!E33</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <f>Design!D33</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <f>Design!E33</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F40 H3:H40 J3:J40 D3:D40">
+  <conditionalFormatting sqref="F3:F39 H3:H39 J3:J39 D3:D39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/documents/project management/Test/Abnahmetest_Go Happy_gesamt.xlsx
+++ b/documents/project management/Test/Abnahmetest_Go Happy_gesamt.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -42,31 +42,6 @@
     <t>Der Anwender bekommt eine "Go Happy"-Link zugesendet und klickt auf diesen.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Der Anwender entdeckt flasche Informationen bei einer Bar und meldet diese über den </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XXX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Button.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Es öffnet sich ein Fenster. Dem Anwender wird ein Link zur Verfügung gestellt, den er kopieren und versenden kann. </t>
   </si>
   <si>
@@ -127,18 +102,9 @@
     <t>Abnahmetest konsolidiert</t>
   </si>
   <si>
-    <t>Login Admin Bereich</t>
-  </si>
-  <si>
     <t>Es öffnet sich ein Pop-Up Fenster zur Benennung der Route. Die Route wird in "Offline Routen" gespeichert.</t>
   </si>
   <si>
-    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Ort an und klickt auf den "Zurück-Pfeil".</t>
-  </si>
-  <si>
-    <t>Der Anwender öffnet die Web-Anwendung und betätigt den "Go Happy"-Button und es werden keine Bars auf den die Parameter zutreffen gefunden.</t>
-  </si>
-  <si>
     <t>Der Anwender hat sich eine Route erstellen lassen und klickt auf das "Kartenicon".</t>
   </si>
   <si>
@@ -151,30 +117,6 @@
     <t>Der Anwender befindet sich in der Kartenansicht der Route und klickt auf einen Routenpunkt.</t>
   </si>
   <si>
-    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Wochentag an und klickt auf den "Zurück-Pfeil".</t>
-  </si>
-  <si>
-    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Radius an und klickt auf den "Zurück-Pfeil".</t>
-  </si>
-  <si>
-    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Uhrzeit an und klickt auf den "Zurück-Pfeil".</t>
-  </si>
-  <si>
-    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Verweilszeit an und klickt auf den "Zurück-Pfeil".</t>
-  </si>
-  <si>
-    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Ort an und klickt auf den "Zurück-Pfeil" und eine oder mehrer Bars passen nicht mehr zu den eingestellten Parametern.</t>
-  </si>
-  <si>
-    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Radius an und klickt auf den "Zurück-Pfeil" und eine oder mehrere Bars passen nicht mehr zu den eingestellten Parametern.</t>
-  </si>
-  <si>
-    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Uhrzeit an und klickt auf den "Zurück-Pfeil" und eine oder mehrere Bars passennicht mehr zu den eingestellten Parametern.</t>
-  </si>
-  <si>
-    <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Verweilzeit an und klickt auf den "Zurück-Pfeil" und eine oder mehrere Bars passen nicht mehr zu den eingestellten Parametern.</t>
-  </si>
-  <si>
     <t>Der Anwender möchte mehr Informationen zu eine Bar bekommen und klickt auf eine Bar in der Ansicht "Aktuellen-Routen".</t>
   </si>
   <si>
@@ -223,9 +165,6 @@
     <t>Der Anwender schließt die Anwendung und öffnet diese nach 24h wieder.</t>
   </si>
   <si>
-    <t>Aktualisierungsbutton</t>
-  </si>
-  <si>
     <t>Es wird eine Happy Hour Route auf Basis der Standardeinstellungen inkl. aktuellem Standort erstellt.</t>
   </si>
   <si>
@@ -241,12 +180,6 @@
     <t>Der Anwender gelangt zurück zu der ansicht "Aktuelle Route".</t>
   </si>
   <si>
-    <t>Der Anwender lässt sich mehr Informationen zu einer Bar anzeigen und klick auf den angezeigten Karteausschnitt.</t>
-  </si>
-  <si>
-    <t>Was passiert hier genau? Bzw geht das überhaupt?</t>
-  </si>
-  <si>
     <t>Die Bar klappt zusammen und wird wieder in normalen Listenform angezeigt.</t>
   </si>
   <si>
@@ -289,9 +222,6 @@
     <t>Der Anwender startet von Beginn mit der Ansicht des "Go Happy Buttons".</t>
   </si>
   <si>
-    <t>Was passiert hier?</t>
-  </si>
-  <si>
     <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Ort an und klickt auf den "Zurück-Pfeil". Daraufhin wird der "Aktualisierungs-Button" betätigt, um die Einstellungen zu übernehmen</t>
   </si>
   <si>
@@ -320,6 +250,9 @@
   </si>
   <si>
     <t>Der Anwender hat sich eine Route erstellen lassen, klickt auf das "Options-Icon" und passt die Einstellung Verweilzeit an und klickt auf den "Zurück-Pfeil".  Daraufhin wird der "Aktualisierungs-Button" betätigt, um die Einstellungen zu übernehmen und eine oder mehrere Bars passen nicht mehr zu den eingestellten Parametern.</t>
+  </si>
+  <si>
+    <t>Der Anwender entdeckt flasche Informationen bei einer Bar und meldet diese über den "Melden-Button".</t>
   </si>
 </sst>
 </file>
@@ -372,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,8 +324,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -453,8 +392,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF95B3D7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF95B3D7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -586,8 +538,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -608,9 +566,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -636,15 +591,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,17 +598,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="137">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -728,6 +680,9 @@
     <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -793,6 +748,9 @@
     <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
@@ -1339,8 +1297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:K39" totalsRowShown="0">
-  <autoFilter ref="A2:K39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:K37" totalsRowShown="0">
+  <autoFilter ref="A2:K37"/>
   <tableColumns count="11">
     <tableColumn id="1" name="ID" dataDxfId="31"/>
     <tableColumn id="2" name="Testszenario" dataDxfId="30"/>
@@ -1371,8 +1329,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E40" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="A2:E40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E37" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A2:E37"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID" dataDxfId="17"/>
     <tableColumn id="2" name="Testszenario" dataDxfId="16"/>
@@ -1380,13 +1338,13 @@
     <tableColumn id="4" name="Ergebnis Backend" dataDxfId="15"/>
     <tableColumn id="5" name="Kommentar Backend" dataDxfId="14"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle14" displayName="Tabelle14" ref="A2:E40" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A2:E40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle14" displayName="Tabelle14" ref="A2:E38" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A2:E38"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID" dataDxfId="10"/>
     <tableColumn id="2" name="Testszenario" dataDxfId="9"/>
@@ -1394,13 +1352,13 @@
     <tableColumn id="4" name="Ergebnis Backend" dataDxfId="8"/>
     <tableColumn id="5" name="Kommentar Backend" dataDxfId="7"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle146" displayName="Tabelle146" ref="A2:E40" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A2:E40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle146" displayName="Tabelle146" ref="A2:E38" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A2:E38"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID" dataDxfId="3"/>
     <tableColumn id="2" name="Testszenario" dataDxfId="2"/>
@@ -1734,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1757,7 +1715,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1771,39 +1729,39 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="45">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -1833,14 +1791,14 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="60">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -1850,19 +1808,19 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>Frontend!D4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f>Frontend!E4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <f>Design!D4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <f>Design!E4</f>
         <v>0</v>
       </c>
@@ -1870,14 +1828,14 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="45">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>82</v>
+      <c r="B5" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -1907,14 +1865,14 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="60">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>83</v>
+      <c r="B6" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -1944,14 +1902,14 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="45">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>84</v>
+      <c r="B7" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -1981,14 +1939,14 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="45">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>85</v>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2018,14 +1976,14 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="60">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>86</v>
+      <c r="B9" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2035,19 +1993,19 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>Frontend!D8</f>
         <v>0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>Frontend!E8</f>
         <v>0</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <f>Design!D8</f>
         <v>0</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f>Design!E8</f>
         <v>0</v>
       </c>
@@ -2055,14 +2013,14 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="75">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>88</v>
+      <c r="B10" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2092,14 +2050,14 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="75">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2129,14 +2087,14 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="75">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2166,14 +2124,14 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="75">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2203,14 +2161,14 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="30">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2240,14 +2198,14 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="45">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2257,19 +2215,19 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>Frontend!D15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <f>Frontend!E15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <f>Design!D15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <f>Design!E15</f>
         <v>0</v>
       </c>
@@ -2277,14 +2235,14 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="30">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2294,19 +2252,19 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>Frontend!D14</f>
         <v>0</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f>Frontend!E14</f>
         <v>0</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <f>Design!D14</f>
         <v>0</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <f>Design!E14</f>
         <v>0</v>
       </c>
@@ -2314,14 +2272,14 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2351,14 +2309,14 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="30">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2388,14 +2346,14 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="30">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2423,14 +2381,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="30">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2440,19 +2398,19 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f>Frontend!D20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <f>Frontend!E20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <f>Design!D20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <f>Design!E20</f>
         <v>0</v>
       </c>
@@ -2460,14 +2418,14 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="45">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2497,14 +2455,14 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="45">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2534,14 +2492,14 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="45">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2571,14 +2529,14 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="45">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2588,19 +2546,19 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f>Frontend!D26</f>
         <v>0</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <f>Frontend!E26</f>
         <v>0</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <f>Design!D26</f>
         <v>0</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <f>Design!E26</f>
         <v>0</v>
       </c>
@@ -2608,14 +2566,14 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="30">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2645,14 +2603,14 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="45">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2682,14 +2640,14 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="60">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2699,19 +2657,19 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <f>Frontend!D29</f>
         <v>0</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <f>Frontend!E29</f>
         <v>0</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <f>Design!D29</f>
         <v>0</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <f>Design!E29</f>
         <v>0</v>
       </c>
@@ -2719,14 +2677,14 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="45">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2756,14 +2714,14 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="45">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2793,14 +2751,14 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="45">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2830,14 +2788,14 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="30">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D31" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2867,14 +2825,14 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="30">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D32" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2884,19 +2842,19 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <f>Frontend!D26</f>
         <v>0</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <f>Frontend!E26</f>
         <v>0</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <f>Design!D26</f>
         <v>0</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="10">
         <f>Design!E26</f>
         <v>0</v>
       </c>
@@ -2904,14 +2862,14 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="45">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2921,19 +2879,19 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <f>Frontend!D27</f>
         <v>0</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <f>Frontend!E27</f>
         <v>0</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="10">
         <f>Design!D27</f>
         <v>0</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="10">
         <f>Design!E27</f>
         <v>0</v>
       </c>
@@ -2941,14 +2899,14 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="30">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2958,19 +2916,19 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <f>Frontend!D28</f>
         <v>0</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <f>Frontend!E28</f>
         <v>0</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <f>Design!D28</f>
         <v>0</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="10">
         <f>Design!E28</f>
         <v>0</v>
       </c>
@@ -2978,14 +2936,14 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="30">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D35" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -2995,19 +2953,19 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <f>Frontend!D29</f>
         <v>0</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <f>Frontend!E29</f>
         <v>0</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="10">
         <f>Design!D29</f>
         <v>0</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="10">
         <f>Design!E29</f>
         <v>0</v>
       </c>
@@ -3015,14 +2973,14 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="45">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D36" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -3032,19 +2990,19 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <f>Frontend!D30</f>
         <v>0</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <f>Frontend!E30</f>
         <v>0</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="10">
         <f>Design!D30</f>
         <v>0</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="10">
         <f>Design!E30</f>
         <v>0</v>
       </c>
@@ -3052,14 +3010,14 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="30">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D37" s="1">
         <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
@@ -3069,101 +3027,27 @@
         <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
         <v>0</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f>Frontend!D31</f>
         <v>0</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <f>Frontend!E31</f>
         <v>0</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <f>Design!D31</f>
         <v>0</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="10">
         <f>Design!E31</f>
         <v>0</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="16">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="1">
-        <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <f>Frontend!D32</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
-        <f>Frontend!E32</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <f>Design!D32</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <f>Design!E32</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="16">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="1">
-        <f>Tabelle1[[#This Row],[Ergebnis Backend]]</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <f>Tabelle1[[#This Row],[Kommentar Backend]]</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="11">
-        <f>Frontend!D33</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="11">
-        <f>Frontend!E33</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="11">
-        <f>Design!D33</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
-        <f>Design!E33</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F39 H3:H39 J3:J39 D3:D39">
+  <conditionalFormatting sqref="F3:F37 H3:H37 J3:J37 D3:D37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3188,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3205,522 +3089,483 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="20">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>60</v>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="21">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="20">
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="60">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
+      <c r="B5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="21">
+    <row r="6" spans="1:5" ht="60">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
+      <c r="B6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="20">
+    <row r="7" spans="1:5" ht="60">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
+      <c r="B7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="21">
+    <row r="8" spans="1:5" ht="60">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="20">
+    <row r="9" spans="1:5" ht="60">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="21">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>61</v>
+      <c r="B10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="20">
+    <row r="11" spans="1:5" ht="75">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>61</v>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="45">
-      <c r="A12" s="21">
+    <row r="12" spans="1:5" ht="75">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="60">
-      <c r="A13" s="20">
+    <row r="13" spans="1:5" ht="75">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>61</v>
+      <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="21">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>62</v>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="20">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="21">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="20">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="21">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="20">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="21">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="20">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="21">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>7</v>
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="30">
-      <c r="A23" s="20">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>68</v>
+    <row r="23" spans="1:5" ht="45">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="45">
-      <c r="A24" s="21">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>28</v>
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="45">
-      <c r="A25" s="20">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+    <row r="25" spans="1:5" ht="30">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="21">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>70</v>
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="20">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>71</v>
+    <row r="27" spans="1:5" ht="45">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="45">
-      <c r="A28" s="21">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" ht="45">
-      <c r="A29" s="20">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>14</v>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="21">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>73</v>
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="30">
-      <c r="A31" s="20">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>15</v>
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="30">
-      <c r="A32" s="21">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>74</v>
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="30">
-      <c r="A33" s="20">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="45">
-      <c r="A34" s="21">
+    <row r="33" spans="1:5" ht="45">
+      <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" ht="30">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="30">
-      <c r="A35" s="20">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="30">
-      <c r="A36" s="21">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="20">
+      <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="21">
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="15">
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="20">
-        <v>37</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="24">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D40">
+  <conditionalFormatting sqref="D3:D37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3745,10 +3590,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3762,35 +3607,35 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="20">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>60</v>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -3798,488 +3643,462 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="21">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="20">
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
+      <c r="B5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="21">
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
+      <c r="B6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="20">
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
+      <c r="B7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="21">
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="20">
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="60">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="21">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>61</v>
+      <c r="B10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="20">
+    <row r="11" spans="1:5" ht="60">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>61</v>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="45">
-      <c r="A12" s="21">
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="20">
+    <row r="13" spans="1:5" ht="60">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>61</v>
+      <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="21">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>62</v>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="20">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="21">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="20">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="21">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="20">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="21">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="20">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="21">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>7</v>
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="30">
-      <c r="A23" s="20">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>68</v>
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" ht="30">
-      <c r="A24" s="21">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>28</v>
+    <row r="24" spans="1:5" ht="45">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="45">
-      <c r="A25" s="20">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+    <row r="25" spans="1:5" ht="30">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="21">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>70</v>
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="20">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>71</v>
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="21">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" ht="45">
-      <c r="A29" s="20">
+    <row r="28" spans="1:5" ht="45">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>14</v>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="21">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>73</v>
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="30">
-      <c r="A31" s="20">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>15</v>
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="30">
-      <c r="A32" s="21">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>74</v>
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="30">
-      <c r="A33" s="20">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="45">
-      <c r="A34" s="21">
+    <row r="33" spans="1:5" ht="45">
+      <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" ht="30">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="30">
-      <c r="A35" s="20">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="30">
-      <c r="A36" s="21">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="20">
+      <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="21">
+      <c r="A38" s="17">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="20">
-        <v>37</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="24">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D40">
+  <conditionalFormatting sqref="D3:D38">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4304,10 +4123,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C44" sqref="C44:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4321,35 +4140,35 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>60</v>
+      <c r="C3" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -4357,144 +4176,144 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="21">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" ht="30">
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="60">
       <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
+      <c r="B5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="21">
+    <row r="6" spans="1:5" ht="60">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="60">
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
+      <c r="B7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="21">
+    <row r="8" spans="1:5" ht="60">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
+      <c r="B8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="45">
+    <row r="9" spans="1:5" ht="60">
       <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="21">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>61</v>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="60">
+    <row r="11" spans="1:5" ht="75">
       <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>61</v>
+      <c r="B11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="60">
-      <c r="A12" s="21">
+    <row r="12" spans="1:5" ht="75">
+      <c r="A12" s="22">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="60">
+    <row r="13" spans="1:5" ht="75">
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>61</v>
+      <c r="B13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>62</v>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -4503,50 +4322,50 @@
       <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="21">
+      <c r="A16" s="22">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>11</v>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="21">
+      <c r="A18" s="22">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -4555,290 +4374,264 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
+      <c r="B19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="21">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="30">
       <c r="A21" s="20">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="21">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>7</v>
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="30">
+    <row r="23" spans="1:5" ht="45">
       <c r="A23" s="20">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="45">
-      <c r="A24" s="21">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>28</v>
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="45">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="20">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="21">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>70</v>
+      <c r="B25" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="45">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="45">
       <c r="A27" s="20">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>71</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="45">
-      <c r="A28" s="21">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" ht="45">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" ht="30">
       <c r="A29" s="20">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="21">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>73</v>
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="20">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="30">
-      <c r="A32" s="21">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>74</v>
+      <c r="A32" s="22">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="30">
+    <row r="33" spans="1:5" ht="45">
       <c r="A33" s="20">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="45">
-      <c r="A34" s="21">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="B33" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" ht="30">
+      <c r="A34" s="22">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="30">
       <c r="A35" s="20">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="30">
-      <c r="A36" s="21">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" ht="30">
+      <c r="A36" s="22">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="20">
-        <v>35</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="21">
+      <c r="A38" s="17">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="20">
-        <v>37</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="24">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D40">
+  <conditionalFormatting sqref="D3:D38">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
